--- a/data/trans_bre/P2C_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 18,31</t>
+          <t>-0,19; 18,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 25,67</t>
+          <t>7,17; 25,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,03; 36,29</t>
+          <t>17,33; 35,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,71</t>
+          <t>0,86; 7,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 45,48</t>
+          <t>-0,3; 46,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,32; 44,83</t>
+          <t>10,66; 44,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,17; 89,69</t>
+          <t>34,12; 93,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 141,73</t>
+          <t>8,53; 143,94</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 27,36</t>
+          <t>7,69; 27,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,09; 33,22</t>
+          <t>16,42; 32,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 29,69</t>
+          <t>12,87; 30,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,02</t>
+          <t>2,59; 9,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 67,04</t>
+          <t>14,51; 66,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,39; 62,16</t>
+          <t>26,07; 61,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 67,47</t>
+          <t>24,06; 69,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,21; 221,22</t>
+          <t>32,1; 220,83</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 27,93</t>
+          <t>6,59; 26,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 18,89</t>
+          <t>1,75; 18,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 14,19</t>
+          <t>-8,08; 14,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 10,78</t>
+          <t>-3,01; 10,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,42; 78,81</t>
+          <t>16,11; 73,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 41,86</t>
+          <t>3,72; 40,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 33,58</t>
+          <t>-16,5; 33,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 384,6</t>
+          <t>-27,03; 346,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 27,85</t>
+          <t>16,07; 27,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 35,54</t>
+          <t>25,34; 35,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 22,95</t>
+          <t>10,99; 22,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 53,16</t>
+          <t>1,24; 52,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,69; 88,76</t>
+          <t>43,39; 85,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,06; 81,07</t>
+          <t>50,43; 80,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,96; 53,08</t>
+          <t>22,58; 51,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 577,32</t>
+          <t>10,72; 528,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,32; 22,87</t>
+          <t>7,0; 24,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 21,84</t>
+          <t>8,58; 23,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 18,53</t>
+          <t>4,54; 18,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,52</t>
+          <t>0,19; 7,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 79,66</t>
+          <t>17,54; 84,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 54,13</t>
+          <t>17,4; 56,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,66; 49,36</t>
+          <t>10,02; 50,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 120,7</t>
+          <t>2,94; 130,73</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,13; 22,45</t>
+          <t>7,94; 22,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,81; 30,3</t>
+          <t>12,44; 29,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 13,02</t>
+          <t>-5,54; 13,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 12,06</t>
+          <t>4,26; 12,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>32,23; 255,76</t>
+          <t>35,76; 252,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,43; 294,15</t>
+          <t>47,73; 274,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 73,64</t>
+          <t>-16,13; 76,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,65; 949,38</t>
+          <t>43,32; 999,24</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 12,17</t>
+          <t>6,13; 12,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,2; 15,13</t>
+          <t>9,11; 15,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,37</t>
+          <t>3,84; 10,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,68; 26,03</t>
+          <t>3,88; 24,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,29; 35,11</t>
+          <t>15,85; 35,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,17; 31,9</t>
+          <t>17,8; 31,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,48; 24,31</t>
+          <t>8,5; 24,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,34; 353,48</t>
+          <t>47,41; 344,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
